--- a/data/DMS실습(4)-ANOVA분석.xlsx
+++ b/data/DMS실습(4)-ANOVA분석.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpark/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpark/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -622,9 +622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -880,9 +878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B19:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -944,9 +940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B19:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
